--- a/data/CORTE_SAP.xlsx
+++ b/data/CORTE_SAP.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
   </bookViews>
   <sheets>
-    <sheet name="CORTE LASER JUNIO JULIO 11" sheetId="1" r:id="rId1"/>
+    <sheet name="CORTESAP" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="213">
   <si>
     <t>Material</t>
   </si>
@@ -504,6 +504,24 @@
     <t>PL s/plano-250x150x25mm A36</t>
   </si>
   <si>
+    <t>PL A-36 6000X80X12MM plet</t>
+  </si>
+  <si>
+    <t>10.07.2024</t>
+  </si>
+  <si>
+    <t>12.07.2024</t>
+  </si>
+  <si>
+    <t>PL A-36 6000X100X12MM plet</t>
+  </si>
+  <si>
+    <t>PL A-36 300X420X12MM axb</t>
+  </si>
+  <si>
+    <t>PL A-36 223X93X12MM axb</t>
+  </si>
+  <si>
     <t>PL A-36 950X950X10MM axb</t>
   </si>
   <si>
@@ -543,6 +561,18 @@
     <t>PL A-36 200X1200X10MM axb</t>
   </si>
   <si>
+    <t>PL A-36 829X600X12MM axb</t>
+  </si>
+  <si>
+    <t>11.07.2024</t>
+  </si>
+  <si>
+    <t>PL A-36 220X770X12MM axb</t>
+  </si>
+  <si>
+    <t>PL A-36 600X760X12MM axb</t>
+  </si>
+  <si>
     <t>PLA-36 890X1144X10MM axb</t>
   </si>
   <si>
@@ -555,6 +585,9 @@
     <t>PL A-36 170X350X6MM axb</t>
   </si>
   <si>
+    <t>PL A-36 220X296X12MM axb</t>
+  </si>
+  <si>
     <t>pl. a-36 230x300x12</t>
   </si>
   <si>
@@ -595,9 +628,6 @@
   </si>
   <si>
     <t>PL A-36 105X74X10MM CM27</t>
-  </si>
-  <si>
-    <t>11.07.2024</t>
   </si>
   <si>
     <t>PL A-36 95X60X10MM CM18</t>
@@ -1436,10 +1466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q220"/>
+  <dimension ref="B1:Q241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9045,43 +9075,43 @@
     </row>
     <row r="154" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B154">
-        <v>26193</v>
+        <v>26194</v>
       </c>
       <c r="C154">
         <v>55448004</v>
       </c>
       <c r="D154">
-        <v>1659306</v>
+        <v>1659728</v>
       </c>
       <c r="E154" t="s">
         <v>161</v>
       </c>
       <c r="F154">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G154">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
         <v>162</v>
       </c>
       <c r="I154" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="L154" t="s">
         <v>19</v>
       </c>
       <c r="M154" s="1">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="N154">
-        <v>72.2</v>
-      </c>
-      <c r="O154" s="2">
-        <v>1732.8</v>
+        <v>46.09</v>
+      </c>
+      <c r="O154">
+        <v>645.26</v>
       </c>
       <c r="P154">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="Q154" t="s">
         <v>20</v>
@@ -9089,43 +9119,43 @@
     </row>
     <row r="155" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B155">
-        <v>26193</v>
+        <v>26194</v>
       </c>
       <c r="C155">
         <v>55448004</v>
       </c>
       <c r="D155">
-        <v>1659309</v>
+        <v>1659729</v>
       </c>
       <c r="E155" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F155">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="G155">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H155" t="s">
         <v>162</v>
       </c>
       <c r="I155" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="L155" t="s">
         <v>19</v>
       </c>
       <c r="M155" s="1">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="N155">
-        <v>11.88</v>
+        <v>57.64</v>
       </c>
       <c r="O155">
-        <v>11.88</v>
+        <v>634.04</v>
       </c>
       <c r="P155">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Q155" t="s">
         <v>20</v>
@@ -9133,43 +9163,43 @@
     </row>
     <row r="156" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B156">
-        <v>26193</v>
+        <v>26194</v>
       </c>
       <c r="C156">
         <v>55448004</v>
       </c>
       <c r="D156">
-        <v>1659312</v>
+        <v>1659662</v>
       </c>
       <c r="E156" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F156">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G156">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="H156" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="I156" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="L156" t="s">
         <v>19</v>
       </c>
       <c r="M156" s="1">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="N156">
-        <v>34.32</v>
-      </c>
-      <c r="O156">
-        <v>514.79999999999995</v>
+        <v>12.1</v>
+      </c>
+      <c r="O156" s="2">
+        <v>1004.3</v>
       </c>
       <c r="P156">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="Q156" t="s">
         <v>20</v>
@@ -9177,43 +9207,43 @@
     </row>
     <row r="157" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B157">
-        <v>26193</v>
+        <v>26194</v>
       </c>
       <c r="C157">
         <v>55448004</v>
       </c>
       <c r="D157">
-        <v>1659314</v>
+        <v>1659664</v>
       </c>
       <c r="E157" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F157">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="G157">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="H157" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="I157" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="L157" t="s">
         <v>19</v>
       </c>
       <c r="M157" s="1">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="N157">
-        <v>3.71</v>
+        <v>1.99</v>
       </c>
       <c r="O157">
-        <v>3.71</v>
+        <v>204.97</v>
       </c>
       <c r="P157">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="Q157" t="s">
         <v>20</v>
@@ -9221,43 +9251,43 @@
     </row>
     <row r="158" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B158">
-        <v>26177</v>
+        <v>26193</v>
       </c>
       <c r="C158">
         <v>55448004</v>
       </c>
       <c r="D158">
-        <v>1659317</v>
+        <v>1659306</v>
       </c>
       <c r="E158" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F158">
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="G158">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="H158" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="I158" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="L158" t="s">
         <v>19</v>
       </c>
       <c r="M158" s="1">
-        <v>400000</v>
+        <v>1000000</v>
       </c>
       <c r="N158">
-        <v>19.21</v>
-      </c>
-      <c r="O158">
-        <v>134.47</v>
+        <v>72.2</v>
+      </c>
+      <c r="O158" s="2">
+        <v>1732.8</v>
       </c>
       <c r="P158">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="Q158" t="s">
         <v>20</v>
@@ -9265,46 +9295,40 @@
     </row>
     <row r="159" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B159">
-        <v>26177</v>
+        <v>26193</v>
       </c>
       <c r="C159">
         <v>55448004</v>
       </c>
       <c r="D159">
-        <v>1659318</v>
+        <v>1659309</v>
       </c>
       <c r="E159" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F159">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="G159">
         <v>1</v>
       </c>
       <c r="H159" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="I159" t="s">
-        <v>162</v>
-      </c>
-      <c r="J159" t="s">
-        <v>168</v>
-      </c>
-      <c r="K159" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="L159" t="s">
         <v>19</v>
       </c>
       <c r="M159" s="1">
-        <v>400000</v>
+        <v>1000000</v>
       </c>
       <c r="N159">
-        <v>38.450000000000003</v>
+        <v>11.88</v>
       </c>
       <c r="O159">
-        <v>38.450000000000003</v>
+        <v>11.88</v>
       </c>
       <c r="P159">
         <v>1</v>
@@ -9315,49 +9339,43 @@
     </row>
     <row r="160" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B160">
-        <v>26177</v>
+        <v>26193</v>
       </c>
       <c r="C160">
         <v>55448004</v>
       </c>
       <c r="D160">
-        <v>1659318</v>
+        <v>1659312</v>
       </c>
       <c r="E160" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F160">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="G160">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H160" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="I160" t="s">
-        <v>162</v>
-      </c>
-      <c r="J160" t="s">
-        <v>168</v>
-      </c>
-      <c r="K160" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="L160" t="s">
         <v>19</v>
       </c>
       <c r="M160" s="1">
-        <v>400000</v>
+        <v>1000000</v>
       </c>
       <c r="N160">
-        <v>38.450000000000003</v>
+        <v>34.32</v>
       </c>
       <c r="O160">
-        <v>192.25</v>
+        <v>514.79999999999995</v>
       </c>
       <c r="P160">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q160" t="s">
         <v>20</v>
@@ -9371,22 +9389,22 @@
         <v>55448004</v>
       </c>
       <c r="D161">
-        <v>1659309</v>
+        <v>1659314</v>
       </c>
       <c r="E161" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F161">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G161">
-        <v>135</v>
+        <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="I161" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="L161" t="s">
         <v>19</v>
@@ -9395,13 +9413,13 @@
         <v>1000000</v>
       </c>
       <c r="N161">
-        <v>11.88</v>
-      </c>
-      <c r="O161" s="2">
-        <v>1603.8</v>
+        <v>3.71</v>
+      </c>
+      <c r="O161">
+        <v>3.71</v>
       </c>
       <c r="P161">
-        <v>135</v>
+        <v>1</v>
       </c>
       <c r="Q161" t="s">
         <v>20</v>
@@ -9409,43 +9427,43 @@
     </row>
     <row r="162" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B162">
-        <v>26193</v>
+        <v>26177</v>
       </c>
       <c r="C162">
         <v>55448004</v>
       </c>
       <c r="D162">
-        <v>1659314</v>
+        <v>1659317</v>
       </c>
       <c r="E162" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F162">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="G162">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H162" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="I162" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L162" t="s">
         <v>19</v>
       </c>
       <c r="M162" s="1">
-        <v>1000000</v>
+        <v>400000</v>
       </c>
       <c r="N162">
-        <v>3.71</v>
+        <v>19.21</v>
       </c>
       <c r="O162">
-        <v>3.71</v>
+        <v>134.47</v>
       </c>
       <c r="P162">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q162" t="s">
         <v>20</v>
@@ -9453,43 +9471,49 @@
     </row>
     <row r="163" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B163">
-        <v>26193</v>
+        <v>26177</v>
       </c>
       <c r="C163">
         <v>55448004</v>
       </c>
       <c r="D163">
-        <v>1659315</v>
+        <v>1659318</v>
       </c>
       <c r="E163" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F163">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="G163">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="I163" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="J163" t="s">
+        <v>174</v>
+      </c>
+      <c r="K163" t="s">
+        <v>65</v>
       </c>
       <c r="L163" t="s">
         <v>19</v>
       </c>
       <c r="M163" s="1">
-        <v>1000000</v>
+        <v>400000</v>
       </c>
       <c r="N163">
-        <v>11.85</v>
+        <v>38.450000000000003</v>
       </c>
       <c r="O163">
-        <v>651.75</v>
+        <v>38.450000000000003</v>
       </c>
       <c r="P163">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="Q163" t="s">
         <v>20</v>
@@ -9497,43 +9521,49 @@
     </row>
     <row r="164" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B164">
-        <v>26193</v>
+        <v>26177</v>
       </c>
       <c r="C164">
         <v>55448004</v>
       </c>
       <c r="D164">
-        <v>1659309</v>
+        <v>1659318</v>
       </c>
       <c r="E164" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F164">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="G164">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H164" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="I164" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="J164" t="s">
+        <v>174</v>
+      </c>
+      <c r="K164" t="s">
+        <v>65</v>
       </c>
       <c r="L164" t="s">
         <v>19</v>
       </c>
       <c r="M164" s="1">
-        <v>1000000</v>
+        <v>400000</v>
       </c>
       <c r="N164">
-        <v>11.88</v>
+        <v>38.450000000000003</v>
       </c>
       <c r="O164">
-        <v>47.52</v>
+        <v>192.25</v>
       </c>
       <c r="P164">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q164" t="s">
         <v>20</v>
@@ -9547,22 +9577,22 @@
         <v>55448004</v>
       </c>
       <c r="D165">
-        <v>1659310</v>
+        <v>1659309</v>
       </c>
       <c r="E165" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F165">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G165">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="H165" t="s">
         <v>127</v>
       </c>
       <c r="I165" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L165" t="s">
         <v>19</v>
@@ -9571,13 +9601,13 @@
         <v>1000000</v>
       </c>
       <c r="N165">
-        <v>53.33</v>
-      </c>
-      <c r="O165">
-        <v>53.33</v>
+        <v>11.88</v>
+      </c>
+      <c r="O165" s="2">
+        <v>1603.8</v>
       </c>
       <c r="P165">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="Q165" t="s">
         <v>20</v>
@@ -9591,22 +9621,22 @@
         <v>55448004</v>
       </c>
       <c r="D166">
-        <v>1659312</v>
+        <v>1659314</v>
       </c>
       <c r="E166" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F166">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G166">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H166" t="s">
         <v>127</v>
       </c>
       <c r="I166" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L166" t="s">
         <v>19</v>
@@ -9615,13 +9645,13 @@
         <v>1000000</v>
       </c>
       <c r="N166">
-        <v>34.32</v>
+        <v>3.71</v>
       </c>
       <c r="O166">
-        <v>240.24</v>
+        <v>3.71</v>
       </c>
       <c r="P166">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q166" t="s">
         <v>20</v>
@@ -9635,22 +9665,22 @@
         <v>55448004</v>
       </c>
       <c r="D167">
-        <v>1659313</v>
+        <v>1659315</v>
       </c>
       <c r="E167" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F167">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="G167">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="H167" t="s">
         <v>127</v>
       </c>
       <c r="I167" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L167" t="s">
         <v>19</v>
@@ -9659,13 +9689,13 @@
         <v>1000000</v>
       </c>
       <c r="N167">
-        <v>22.44</v>
+        <v>11.85</v>
       </c>
       <c r="O167">
-        <v>179.52</v>
+        <v>651.75</v>
       </c>
       <c r="P167">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="Q167" t="s">
         <v>20</v>
@@ -9679,13 +9709,13 @@
         <v>55448004</v>
       </c>
       <c r="D168">
-        <v>1659314</v>
+        <v>1659309</v>
       </c>
       <c r="E168" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F168">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G168">
         <v>4</v>
@@ -9694,7 +9724,7 @@
         <v>127</v>
       </c>
       <c r="I168" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L168" t="s">
         <v>19</v>
@@ -9703,10 +9733,10 @@
         <v>1000000</v>
       </c>
       <c r="N168">
-        <v>3.71</v>
+        <v>11.88</v>
       </c>
       <c r="O168">
-        <v>14.84</v>
+        <v>47.52</v>
       </c>
       <c r="P168">
         <v>4</v>
@@ -9723,22 +9753,22 @@
         <v>55448004</v>
       </c>
       <c r="D169">
-        <v>1659315</v>
+        <v>1659310</v>
       </c>
       <c r="E169" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F169">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="G169">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="H169" t="s">
         <v>127</v>
       </c>
       <c r="I169" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L169" t="s">
         <v>19</v>
@@ -9747,13 +9777,13 @@
         <v>1000000</v>
       </c>
       <c r="N169">
-        <v>11.85</v>
-      </c>
-      <c r="O169" s="2">
-        <v>1196.8499999999999</v>
+        <v>53.33</v>
+      </c>
+      <c r="O169">
+        <v>53.33</v>
       </c>
       <c r="P169">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="Q169" t="s">
         <v>20</v>
@@ -9767,22 +9797,22 @@
         <v>55448004</v>
       </c>
       <c r="D170">
-        <v>1659314</v>
+        <v>1659312</v>
       </c>
       <c r="E170" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F170">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G170">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H170" t="s">
         <v>127</v>
       </c>
       <c r="I170" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L170" t="s">
         <v>19</v>
@@ -9791,13 +9821,13 @@
         <v>1000000</v>
       </c>
       <c r="N170">
-        <v>3.71</v>
+        <v>34.32</v>
       </c>
       <c r="O170">
-        <v>7.42</v>
+        <v>240.24</v>
       </c>
       <c r="P170">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q170" t="s">
         <v>20</v>
@@ -9811,22 +9841,22 @@
         <v>55448004</v>
       </c>
       <c r="D171">
-        <v>1659319</v>
+        <v>1659313</v>
       </c>
       <c r="E171" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F171">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="G171">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H171" t="s">
         <v>127</v>
       </c>
       <c r="I171" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L171" t="s">
         <v>19</v>
@@ -9835,13 +9865,13 @@
         <v>1000000</v>
       </c>
       <c r="N171">
-        <v>19.2</v>
+        <v>22.44</v>
       </c>
       <c r="O171">
-        <v>38.4</v>
+        <v>179.52</v>
       </c>
       <c r="P171">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q171" t="s">
         <v>20</v>
@@ -9849,49 +9879,43 @@
     </row>
     <row r="172" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B172">
-        <v>26177</v>
+        <v>26193</v>
       </c>
       <c r="C172">
         <v>55448004</v>
       </c>
       <c r="D172">
-        <v>1659318</v>
+        <v>1659314</v>
       </c>
       <c r="E172" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F172">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="G172">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H172" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="I172" t="s">
-        <v>162</v>
-      </c>
-      <c r="J172" t="s">
-        <v>168</v>
-      </c>
-      <c r="K172" t="s">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="L172" t="s">
         <v>19</v>
       </c>
       <c r="M172" s="1">
-        <v>400000</v>
+        <v>1000000</v>
       </c>
       <c r="N172">
-        <v>38.450000000000003</v>
+        <v>3.71</v>
       </c>
       <c r="O172">
-        <v>192.25</v>
+        <v>14.84</v>
       </c>
       <c r="P172">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q172" t="s">
         <v>20</v>
@@ -9905,22 +9929,22 @@
         <v>55448004</v>
       </c>
       <c r="D173">
-        <v>1659306</v>
+        <v>1659315</v>
       </c>
       <c r="E173" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="F173">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G173">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="H173" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="I173" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="L173" t="s">
         <v>19</v>
@@ -9929,13 +9953,13 @@
         <v>1000000</v>
       </c>
       <c r="N173">
-        <v>72.2</v>
-      </c>
-      <c r="O173">
-        <v>722</v>
+        <v>11.85</v>
+      </c>
+      <c r="O173" s="2">
+        <v>1196.8499999999999</v>
       </c>
       <c r="P173">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="Q173" t="s">
         <v>20</v>
@@ -9949,22 +9973,22 @@
         <v>55448004</v>
       </c>
       <c r="D174">
-        <v>1659309</v>
+        <v>1659314</v>
       </c>
       <c r="E174" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F174">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H174" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="I174" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="L174" t="s">
         <v>19</v>
@@ -9973,13 +9997,13 @@
         <v>1000000</v>
       </c>
       <c r="N174">
-        <v>11.88</v>
+        <v>3.71</v>
       </c>
       <c r="O174">
-        <v>11.88</v>
+        <v>7.42</v>
       </c>
       <c r="P174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q174" t="s">
         <v>20</v>
@@ -9993,22 +10017,22 @@
         <v>55448004</v>
       </c>
       <c r="D175">
-        <v>1659311</v>
+        <v>1659319</v>
       </c>
       <c r="E175" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F175">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="G175">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H175" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="I175" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="L175" t="s">
         <v>19</v>
@@ -10017,13 +10041,13 @@
         <v>1000000</v>
       </c>
       <c r="N175">
-        <v>81.5</v>
-      </c>
-      <c r="O175" s="1">
-        <v>1304</v>
+        <v>19.2</v>
+      </c>
+      <c r="O175">
+        <v>38.4</v>
       </c>
       <c r="P175">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="Q175" t="s">
         <v>20</v>
@@ -10031,43 +10055,43 @@
     </row>
     <row r="176" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B176">
-        <v>26193</v>
+        <v>26194</v>
       </c>
       <c r="C176">
         <v>55448004</v>
       </c>
       <c r="D176">
-        <v>1659312</v>
+        <v>1659663</v>
       </c>
       <c r="E176" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="F176">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G176">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="H176" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="I176" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="L176" t="s">
         <v>19</v>
       </c>
       <c r="M176" s="1">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="N176">
-        <v>34.32</v>
-      </c>
-      <c r="O176">
-        <v>171.6</v>
+        <v>47.76</v>
+      </c>
+      <c r="O176" s="2">
+        <v>2674.56</v>
       </c>
       <c r="P176">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="Q176" t="s">
         <v>20</v>
@@ -10075,43 +10099,43 @@
     </row>
     <row r="177" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B177">
-        <v>26193</v>
+        <v>26194</v>
       </c>
       <c r="C177">
         <v>55448004</v>
       </c>
       <c r="D177">
-        <v>1659308</v>
+        <v>1659664</v>
       </c>
       <c r="E177" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F177">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="G177">
-        <v>206</v>
+        <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="I177" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="L177" t="s">
         <v>19</v>
       </c>
       <c r="M177" s="1">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="N177">
-        <v>3.19</v>
+        <v>1.99</v>
       </c>
       <c r="O177">
-        <v>657.14</v>
+        <v>1.99</v>
       </c>
       <c r="P177">
-        <v>206</v>
+        <v>1</v>
       </c>
       <c r="Q177" t="s">
         <v>20</v>
@@ -10119,43 +10143,43 @@
     </row>
     <row r="178" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B178">
-        <v>26193</v>
+        <v>26194</v>
       </c>
       <c r="C178">
         <v>55448004</v>
       </c>
       <c r="D178">
-        <v>1659309</v>
+        <v>1659727</v>
       </c>
       <c r="E178" t="s">
+        <v>182</v>
+      </c>
+      <c r="F178">
+        <v>180</v>
+      </c>
+      <c r="G178">
+        <v>3</v>
+      </c>
+      <c r="H178" t="s">
+        <v>181</v>
+      </c>
+      <c r="I178" t="s">
         <v>163</v>
       </c>
-      <c r="F178">
-        <v>50</v>
-      </c>
-      <c r="G178">
-        <v>63</v>
-      </c>
-      <c r="H178" t="s">
-        <v>127</v>
-      </c>
-      <c r="I178" t="s">
-        <v>141</v>
-      </c>
       <c r="L178" t="s">
         <v>19</v>
       </c>
       <c r="M178" s="1">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="N178">
-        <v>11.88</v>
+        <v>16.260000000000002</v>
       </c>
       <c r="O178">
-        <v>748.44</v>
+        <v>48.78</v>
       </c>
       <c r="P178">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="Q178" t="s">
         <v>20</v>
@@ -10163,43 +10187,49 @@
     </row>
     <row r="179" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B179">
-        <v>26193</v>
+        <v>26177</v>
       </c>
       <c r="C179">
         <v>55448004</v>
       </c>
       <c r="D179">
-        <v>1659314</v>
+        <v>1659318</v>
       </c>
       <c r="E179" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F179">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="G179">
-        <v>207</v>
+        <v>5</v>
       </c>
       <c r="H179" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="I179" t="s">
-        <v>141</v>
+        <v>168</v>
+      </c>
+      <c r="J179" t="s">
+        <v>174</v>
+      </c>
+      <c r="K179" t="s">
+        <v>65</v>
       </c>
       <c r="L179" t="s">
         <v>19</v>
       </c>
       <c r="M179" s="1">
-        <v>1000000</v>
+        <v>400000</v>
       </c>
       <c r="N179">
-        <v>3.71</v>
+        <v>38.450000000000003</v>
       </c>
       <c r="O179">
-        <v>767.97</v>
+        <v>192.25</v>
       </c>
       <c r="P179">
-        <v>207</v>
+        <v>5</v>
       </c>
       <c r="Q179" t="s">
         <v>20</v>
@@ -10207,43 +10237,43 @@
     </row>
     <row r="180" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B180">
-        <v>26193</v>
+        <v>26194</v>
       </c>
       <c r="C180">
         <v>55448004</v>
       </c>
       <c r="D180">
-        <v>1659316</v>
+        <v>1659663</v>
       </c>
       <c r="E180" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F180">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="G180">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H180" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="I180" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="L180" t="s">
         <v>19</v>
       </c>
       <c r="M180" s="1">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="N180">
-        <v>2.64</v>
+        <v>47.76</v>
       </c>
       <c r="O180">
-        <v>23.76</v>
+        <v>191.04</v>
       </c>
       <c r="P180">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q180" t="s">
         <v>20</v>
@@ -10251,43 +10281,43 @@
     </row>
     <row r="181" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B181">
-        <v>26193</v>
+        <v>26194</v>
       </c>
       <c r="C181">
         <v>55448004</v>
       </c>
       <c r="D181">
-        <v>1659306</v>
+        <v>1659664</v>
       </c>
       <c r="E181" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F181">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G181">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H181" t="s">
         <v>162</v>
       </c>
       <c r="I181" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L181" t="s">
         <v>19</v>
       </c>
       <c r="M181" s="1">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="N181">
-        <v>72.2</v>
-      </c>
-      <c r="O181" s="2">
-        <v>1732.8</v>
+        <v>1.99</v>
+      </c>
+      <c r="O181">
+        <v>11.94</v>
       </c>
       <c r="P181">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="Q181" t="s">
         <v>20</v>
@@ -10295,43 +10325,43 @@
     </row>
     <row r="182" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B182">
-        <v>26193</v>
+        <v>26194</v>
       </c>
       <c r="C182">
         <v>55448004</v>
       </c>
       <c r="D182">
-        <v>1659309</v>
+        <v>1659726</v>
       </c>
       <c r="E182" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F182">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="G182">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="H182" t="s">
         <v>162</v>
       </c>
       <c r="I182" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L182" t="s">
         <v>19</v>
       </c>
       <c r="M182" s="1">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="N182">
-        <v>11.88</v>
-      </c>
-      <c r="O182">
-        <v>11.88</v>
+        <v>43.8</v>
+      </c>
+      <c r="O182" s="1">
+        <v>1095</v>
       </c>
       <c r="P182">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="Q182" t="s">
         <v>20</v>
@@ -10339,43 +10369,43 @@
     </row>
     <row r="183" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B183">
-        <v>26193</v>
+        <v>26194</v>
       </c>
       <c r="C183">
         <v>55448004</v>
       </c>
       <c r="D183">
-        <v>1659312</v>
+        <v>1659727</v>
       </c>
       <c r="E183" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="F183">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G183">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H183" t="s">
         <v>162</v>
       </c>
       <c r="I183" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L183" t="s">
         <v>19</v>
       </c>
       <c r="M183" s="1">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="N183">
-        <v>34.32</v>
+        <v>16.260000000000002</v>
       </c>
       <c r="O183">
-        <v>514.79999999999995</v>
+        <v>48.78</v>
       </c>
       <c r="P183">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="Q183" t="s">
         <v>20</v>
@@ -10389,22 +10419,22 @@
         <v>55448004</v>
       </c>
       <c r="D184">
-        <v>1659314</v>
+        <v>1659306</v>
       </c>
       <c r="E184" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F184">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G184">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H184" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="I184" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="L184" t="s">
         <v>19</v>
@@ -10413,13 +10443,13 @@
         <v>1000000</v>
       </c>
       <c r="N184">
-        <v>3.71</v>
+        <v>72.2</v>
       </c>
       <c r="O184">
-        <v>3.71</v>
+        <v>722</v>
       </c>
       <c r="P184">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q184" t="s">
         <v>20</v>
@@ -10433,22 +10463,22 @@
         <v>55448004</v>
       </c>
       <c r="D185">
-        <v>1659306</v>
+        <v>1659309</v>
       </c>
       <c r="E185" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F185">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G185">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="I185" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="L185" t="s">
         <v>19</v>
@@ -10457,13 +10487,13 @@
         <v>1000000</v>
       </c>
       <c r="N185">
-        <v>72.2</v>
-      </c>
-      <c r="O185" s="2">
-        <v>1732.8</v>
+        <v>11.88</v>
+      </c>
+      <c r="O185">
+        <v>11.88</v>
       </c>
       <c r="P185">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="Q185" t="s">
         <v>20</v>
@@ -10477,22 +10507,22 @@
         <v>55448004</v>
       </c>
       <c r="D186">
-        <v>1659309</v>
+        <v>1659311</v>
       </c>
       <c r="E186" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="F186">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G186">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H186" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="I186" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="L186" t="s">
         <v>19</v>
@@ -10501,13 +10531,13 @@
         <v>1000000</v>
       </c>
       <c r="N186">
-        <v>11.88</v>
-      </c>
-      <c r="O186">
-        <v>11.88</v>
+        <v>81.5</v>
+      </c>
+      <c r="O186" s="1">
+        <v>1304</v>
       </c>
       <c r="P186">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="Q186" t="s">
         <v>20</v>
@@ -10524,19 +10554,19 @@
         <v>1659312</v>
       </c>
       <c r="E187" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F187">
         <v>80</v>
       </c>
       <c r="G187">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H187" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="I187" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="L187" t="s">
         <v>19</v>
@@ -10548,10 +10578,10 @@
         <v>34.32</v>
       </c>
       <c r="O187">
-        <v>514.79999999999995</v>
+        <v>171.6</v>
       </c>
       <c r="P187">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q187" t="s">
         <v>20</v>
@@ -10565,22 +10595,22 @@
         <v>55448004</v>
       </c>
       <c r="D188">
-        <v>1659314</v>
+        <v>1659308</v>
       </c>
       <c r="E188" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="F188">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G188">
-        <v>1</v>
+        <v>206</v>
       </c>
       <c r="H188" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="I188" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="L188" t="s">
         <v>19</v>
@@ -10589,13 +10619,13 @@
         <v>1000000</v>
       </c>
       <c r="N188">
-        <v>3.71</v>
+        <v>3.19</v>
       </c>
       <c r="O188">
-        <v>3.71</v>
+        <v>657.14</v>
       </c>
       <c r="P188">
-        <v>1</v>
+        <v>206</v>
       </c>
       <c r="Q188" t="s">
         <v>20</v>
@@ -10603,43 +10633,43 @@
     </row>
     <row r="189" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B189">
-        <v>26191</v>
+        <v>26193</v>
       </c>
       <c r="C189">
         <v>55448004</v>
       </c>
       <c r="D189">
-        <v>1659307</v>
+        <v>1659309</v>
       </c>
       <c r="E189" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F189">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G189">
-        <v>210</v>
+        <v>63</v>
       </c>
       <c r="H189" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="I189" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="L189" t="s">
         <v>19</v>
       </c>
       <c r="M189" s="1">
-        <v>600000</v>
+        <v>1000000</v>
       </c>
       <c r="N189">
-        <v>2.86</v>
+        <v>11.88</v>
       </c>
       <c r="O189">
-        <v>600.6</v>
+        <v>748.44</v>
       </c>
       <c r="P189">
-        <v>210</v>
+        <v>63</v>
       </c>
       <c r="Q189" t="s">
         <v>20</v>
@@ -10647,43 +10677,43 @@
     </row>
     <row r="190" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B190">
-        <v>26177</v>
+        <v>26193</v>
       </c>
       <c r="C190">
         <v>55448004</v>
       </c>
       <c r="D190">
-        <v>1659317</v>
+        <v>1659314</v>
       </c>
       <c r="E190" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F190">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="G190">
-        <v>7</v>
+        <v>207</v>
       </c>
       <c r="H190" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="I190" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="L190" t="s">
         <v>19</v>
       </c>
       <c r="M190" s="1">
-        <v>400000</v>
+        <v>1000000</v>
       </c>
       <c r="N190">
-        <v>19.21</v>
+        <v>3.71</v>
       </c>
       <c r="O190">
-        <v>134.47</v>
+        <v>767.97</v>
       </c>
       <c r="P190">
-        <v>7</v>
+        <v>207</v>
       </c>
       <c r="Q190" t="s">
         <v>20</v>
@@ -10697,22 +10727,22 @@
         <v>55448004</v>
       </c>
       <c r="D191">
-        <v>1659306</v>
+        <v>1659316</v>
       </c>
       <c r="E191" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="F191">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="G191">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H191" t="s">
         <v>127</v>
       </c>
       <c r="I191" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="L191" t="s">
         <v>19</v>
@@ -10721,13 +10751,13 @@
         <v>1000000</v>
       </c>
       <c r="N191">
-        <v>72.2</v>
-      </c>
-      <c r="O191" s="2">
-        <v>1660.6</v>
+        <v>2.64</v>
+      </c>
+      <c r="O191">
+        <v>23.76</v>
       </c>
       <c r="P191">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="Q191" t="s">
         <v>20</v>
@@ -10741,22 +10771,22 @@
         <v>55448004</v>
       </c>
       <c r="D192">
-        <v>1659310</v>
+        <v>1659306</v>
       </c>
       <c r="E192" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F192">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G192">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="H192" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="I192" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L192" t="s">
         <v>19</v>
@@ -10765,13 +10795,13 @@
         <v>1000000</v>
       </c>
       <c r="N192">
-        <v>53.33</v>
-      </c>
-      <c r="O192">
-        <v>106.66</v>
+        <v>72.2</v>
+      </c>
+      <c r="O192" s="2">
+        <v>1732.8</v>
       </c>
       <c r="P192">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="Q192" t="s">
         <v>20</v>
@@ -10785,22 +10815,22 @@
         <v>55448004</v>
       </c>
       <c r="D193">
-        <v>1659312</v>
+        <v>1659309</v>
       </c>
       <c r="E193" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F193">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G193">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H193" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="I193" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L193" t="s">
         <v>19</v>
@@ -10809,13 +10839,13 @@
         <v>1000000</v>
       </c>
       <c r="N193">
-        <v>34.32</v>
+        <v>11.88</v>
       </c>
       <c r="O193">
-        <v>411.84</v>
+        <v>11.88</v>
       </c>
       <c r="P193">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Q193" t="s">
         <v>20</v>
@@ -10829,22 +10859,22 @@
         <v>55448004</v>
       </c>
       <c r="D194">
-        <v>1659313</v>
+        <v>1659312</v>
       </c>
       <c r="E194" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F194">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G194">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H194" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="I194" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L194" t="s">
         <v>19</v>
@@ -10853,13 +10883,13 @@
         <v>1000000</v>
       </c>
       <c r="N194">
-        <v>22.44</v>
+        <v>34.32</v>
       </c>
       <c r="O194">
-        <v>22.44</v>
+        <v>514.79999999999995</v>
       </c>
       <c r="P194">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="Q194" t="s">
         <v>20</v>
@@ -10873,22 +10903,22 @@
         <v>55448004</v>
       </c>
       <c r="D195">
-        <v>1659319</v>
+        <v>1659314</v>
       </c>
       <c r="E195" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F195">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="G195">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="I195" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L195" t="s">
         <v>19</v>
@@ -10897,13 +10927,13 @@
         <v>1000000</v>
       </c>
       <c r="N195">
-        <v>19.2</v>
+        <v>3.71</v>
       </c>
       <c r="O195">
-        <v>499.2</v>
+        <v>3.71</v>
       </c>
       <c r="P195">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="Q195" t="s">
         <v>20</v>
@@ -10911,49 +10941,43 @@
     </row>
     <row r="196" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B196">
-        <v>26194</v>
+        <v>26193</v>
       </c>
       <c r="C196">
-        <v>55448024</v>
+        <v>55448004</v>
       </c>
       <c r="D196">
-        <v>1659354</v>
+        <v>1659306</v>
       </c>
       <c r="E196" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F196">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G196">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H196" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="I196" t="s">
-        <v>124</v>
-      </c>
-      <c r="J196" t="s">
-        <v>169</v>
-      </c>
-      <c r="K196" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="L196" t="s">
         <v>19</v>
       </c>
       <c r="M196" s="1">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="N196">
-        <v>6.62</v>
-      </c>
-      <c r="O196">
-        <v>39.72</v>
+        <v>72.2</v>
+      </c>
+      <c r="O196" s="2">
+        <v>1732.8</v>
       </c>
       <c r="P196">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Q196" t="s">
         <v>20</v>
@@ -10961,49 +10985,43 @@
     </row>
     <row r="197" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B197">
-        <v>26192</v>
+        <v>26193</v>
       </c>
       <c r="C197">
-        <v>55448024</v>
+        <v>55448004</v>
       </c>
       <c r="D197">
-        <v>1659349</v>
+        <v>1659309</v>
       </c>
       <c r="E197" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F197">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G197">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H197" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="I197" t="s">
-        <v>119</v>
-      </c>
-      <c r="J197" t="s">
-        <v>127</v>
-      </c>
-      <c r="K197" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="L197" t="s">
         <v>19</v>
       </c>
       <c r="M197" s="1">
-        <v>800000</v>
+        <v>1000000</v>
       </c>
       <c r="N197">
-        <v>1.31</v>
+        <v>11.88</v>
       </c>
       <c r="O197">
-        <v>5.24</v>
+        <v>11.88</v>
       </c>
       <c r="P197">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q197" t="s">
         <v>20</v>
@@ -11011,49 +11029,43 @@
     </row>
     <row r="198" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B198">
-        <v>26192</v>
+        <v>26193</v>
       </c>
       <c r="C198">
-        <v>55448024</v>
+        <v>55448004</v>
       </c>
       <c r="D198">
-        <v>1659355</v>
+        <v>1659312</v>
       </c>
       <c r="E198" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="F198">
         <v>80</v>
       </c>
       <c r="G198">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H198" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="I198" t="s">
-        <v>119</v>
-      </c>
-      <c r="J198" t="s">
-        <v>127</v>
-      </c>
-      <c r="K198" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="L198" t="s">
         <v>19</v>
       </c>
       <c r="M198" s="1">
-        <v>800000</v>
+        <v>1000000</v>
       </c>
       <c r="N198">
-        <v>4.2699999999999996</v>
+        <v>34.32</v>
       </c>
       <c r="O198">
-        <v>51.24</v>
+        <v>514.79999999999995</v>
       </c>
       <c r="P198">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q198" t="s">
         <v>20</v>
@@ -11061,49 +11073,43 @@
     </row>
     <row r="199" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B199">
-        <v>26192</v>
+        <v>26193</v>
       </c>
       <c r="C199">
-        <v>55448024</v>
+        <v>55448004</v>
       </c>
       <c r="D199">
-        <v>1659356</v>
+        <v>1659314</v>
       </c>
       <c r="E199" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F199">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G199">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H199" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="I199" t="s">
-        <v>119</v>
-      </c>
-      <c r="J199" t="s">
-        <v>127</v>
-      </c>
-      <c r="K199" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="L199" t="s">
         <v>19</v>
       </c>
       <c r="M199" s="1">
-        <v>800000</v>
+        <v>1000000</v>
       </c>
       <c r="N199">
-        <v>1.1499999999999999</v>
+        <v>3.71</v>
       </c>
       <c r="O199">
-        <v>6.9</v>
+        <v>3.71</v>
       </c>
       <c r="P199">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q199" t="s">
         <v>20</v>
@@ -11111,49 +11117,43 @@
     </row>
     <row r="200" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B200">
-        <v>26192</v>
+        <v>26193</v>
       </c>
       <c r="C200">
-        <v>55448024</v>
+        <v>55448004</v>
       </c>
       <c r="D200">
-        <v>1659357</v>
+        <v>1659316</v>
       </c>
       <c r="E200" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F200">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="G200">
-        <v>12</v>
+        <v>459</v>
       </c>
       <c r="H200" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="I200" t="s">
-        <v>119</v>
-      </c>
-      <c r="J200" t="s">
-        <v>127</v>
-      </c>
-      <c r="K200" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="L200" t="s">
         <v>19</v>
       </c>
       <c r="M200" s="1">
-        <v>800000</v>
+        <v>1000000</v>
       </c>
       <c r="N200">
-        <v>3.84</v>
-      </c>
-      <c r="O200">
-        <v>46.08</v>
+        <v>2.64</v>
+      </c>
+      <c r="O200" s="2">
+        <v>1211.76</v>
       </c>
       <c r="P200">
-        <v>12</v>
+        <v>459</v>
       </c>
       <c r="Q200" t="s">
         <v>20</v>
@@ -11161,49 +11161,43 @@
     </row>
     <row r="201" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B201">
-        <v>26191</v>
+        <v>26194</v>
       </c>
       <c r="C201">
-        <v>55448024</v>
+        <v>55448004</v>
       </c>
       <c r="D201">
-        <v>1659350</v>
+        <v>1659663</v>
       </c>
       <c r="E201" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F201">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="G201">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H201" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="I201" t="s">
-        <v>119</v>
-      </c>
-      <c r="J201" t="s">
-        <v>127</v>
-      </c>
-      <c r="K201" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="L201" t="s">
         <v>19</v>
       </c>
       <c r="M201" s="1">
-        <v>600000</v>
+        <v>1200000</v>
       </c>
       <c r="N201">
-        <v>1.3</v>
+        <v>47.76</v>
       </c>
       <c r="O201">
-        <v>36.4</v>
+        <v>859.68</v>
       </c>
       <c r="P201">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="Q201" t="s">
         <v>20</v>
@@ -11211,49 +11205,43 @@
     </row>
     <row r="202" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B202">
-        <v>26191</v>
+        <v>26194</v>
       </c>
       <c r="C202">
-        <v>55448024</v>
+        <v>55448004</v>
       </c>
       <c r="D202">
-        <v>1659358</v>
+        <v>1659664</v>
       </c>
       <c r="E202" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="F202">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="G202">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="H202" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="I202" t="s">
-        <v>119</v>
-      </c>
-      <c r="J202" t="s">
-        <v>127</v>
-      </c>
-      <c r="K202" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="L202" t="s">
         <v>19</v>
       </c>
       <c r="M202" s="1">
-        <v>600000</v>
+        <v>1200000</v>
       </c>
       <c r="N202">
-        <v>1.08</v>
+        <v>1.99</v>
       </c>
       <c r="O202">
-        <v>30.24</v>
+        <v>13.93</v>
       </c>
       <c r="P202">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="Q202" t="s">
         <v>20</v>
@@ -11261,49 +11249,43 @@
     </row>
     <row r="203" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B203">
-        <v>26193</v>
+        <v>26194</v>
       </c>
       <c r="C203">
-        <v>55448024</v>
+        <v>55448004</v>
       </c>
       <c r="D203">
-        <v>1659348</v>
+        <v>1659727</v>
       </c>
       <c r="E203" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F203">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G203">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="H203" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="I203" t="s">
-        <v>119</v>
-      </c>
-      <c r="J203" t="s">
-        <v>127</v>
-      </c>
-      <c r="K203" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="L203" t="s">
         <v>19</v>
       </c>
       <c r="M203" s="1">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="N203">
-        <v>6.44</v>
-      </c>
-      <c r="O203">
-        <v>12.88</v>
+        <v>16.260000000000002</v>
+      </c>
+      <c r="O203" s="2">
+        <v>1333.32</v>
       </c>
       <c r="P203">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="Q203" t="s">
         <v>20</v>
@@ -11311,49 +11293,43 @@
     </row>
     <row r="204" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B204">
-        <v>26193</v>
+        <v>26194</v>
       </c>
       <c r="C204">
-        <v>55448024</v>
+        <v>55448004</v>
       </c>
       <c r="D204">
-        <v>1659353</v>
+        <v>1659728</v>
       </c>
       <c r="E204" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="F204">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="G204">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H204" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="I204" t="s">
-        <v>119</v>
-      </c>
-      <c r="J204" t="s">
-        <v>127</v>
-      </c>
-      <c r="K204" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="L204" t="s">
         <v>19</v>
       </c>
       <c r="M204" s="1">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="N204">
-        <v>4</v>
+        <v>46.09</v>
       </c>
       <c r="O204">
-        <v>24</v>
+        <v>414.81</v>
       </c>
       <c r="P204">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q204" t="s">
         <v>20</v>
@@ -11361,49 +11337,43 @@
     </row>
     <row r="205" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B205">
-        <v>26192</v>
+        <v>26191</v>
       </c>
       <c r="C205">
-        <v>55448024</v>
+        <v>55448004</v>
       </c>
       <c r="D205">
-        <v>1659351</v>
+        <v>1659307</v>
       </c>
       <c r="E205" t="s">
         <v>187</v>
       </c>
       <c r="F205">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G205">
-        <v>6</v>
+        <v>210</v>
       </c>
       <c r="H205" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="I205" t="s">
-        <v>119</v>
-      </c>
-      <c r="J205" t="s">
-        <v>127</v>
-      </c>
-      <c r="K205" t="s">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="L205" t="s">
         <v>19</v>
       </c>
       <c r="M205" s="1">
-        <v>800000</v>
+        <v>600000</v>
       </c>
       <c r="N205">
-        <v>1.92</v>
+        <v>2.86</v>
       </c>
       <c r="O205">
-        <v>11.52</v>
+        <v>600.6</v>
       </c>
       <c r="P205">
-        <v>6</v>
+        <v>210</v>
       </c>
       <c r="Q205" t="s">
         <v>20</v>
@@ -11411,49 +11381,43 @@
     </row>
     <row r="206" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B206">
-        <v>26192</v>
+        <v>26177</v>
       </c>
       <c r="C206">
-        <v>55448024</v>
+        <v>55448004</v>
       </c>
       <c r="D206">
-        <v>1659352</v>
+        <v>1659317</v>
       </c>
       <c r="E206" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F206">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="G206">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H206" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="I206" t="s">
-        <v>119</v>
-      </c>
-      <c r="J206" t="s">
-        <v>127</v>
-      </c>
-      <c r="K206" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="L206" t="s">
         <v>19</v>
       </c>
       <c r="M206" s="1">
-        <v>800000</v>
+        <v>400000</v>
       </c>
       <c r="N206">
-        <v>1.1499999999999999</v>
+        <v>19.21</v>
       </c>
       <c r="O206">
-        <v>6.9</v>
+        <v>134.47</v>
       </c>
       <c r="P206">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q206" t="s">
         <v>20</v>
@@ -11461,152 +11425,134 @@
     </row>
     <row r="207" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B207">
-        <v>62586</v>
+        <v>26193</v>
       </c>
       <c r="C207">
-        <v>55448152</v>
+        <v>55448004</v>
       </c>
       <c r="D207">
-        <v>1659297</v>
+        <v>1659306</v>
       </c>
       <c r="E207" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="F207">
         <v>10</v>
       </c>
       <c r="G207">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="H207" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="I207" t="s">
-        <v>162</v>
-      </c>
-      <c r="J207" t="s">
-        <v>127</v>
-      </c>
-      <c r="K207" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="L207" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="M207" s="1">
-        <v>600000</v>
+        <v>1000000</v>
       </c>
       <c r="N207">
-        <v>2.7</v>
-      </c>
-      <c r="O207">
-        <v>135</v>
+        <v>72.2</v>
+      </c>
+      <c r="O207" s="2">
+        <v>1660.6</v>
       </c>
       <c r="P207">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="Q207" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="208" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B208">
-        <v>62578</v>
+        <v>26193</v>
       </c>
       <c r="C208">
-        <v>55449799</v>
+        <v>55448004</v>
       </c>
       <c r="D208">
-        <v>1659141</v>
+        <v>1659310</v>
       </c>
       <c r="E208" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F208">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G208">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H208" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="I208" t="s">
-        <v>119</v>
-      </c>
-      <c r="J208" t="s">
-        <v>119</v>
-      </c>
-      <c r="K208" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="L208" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="M208" s="1">
-        <v>1600000</v>
+        <v>1000000</v>
       </c>
       <c r="N208">
-        <v>13.44</v>
+        <v>53.33</v>
       </c>
       <c r="O208">
-        <v>53.76</v>
+        <v>106.66</v>
       </c>
       <c r="P208">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q208" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="209" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B209">
-        <v>62578</v>
+        <v>26193</v>
       </c>
       <c r="C209">
-        <v>55449799</v>
+        <v>55448004</v>
       </c>
       <c r="D209">
-        <v>1659142</v>
+        <v>1659312</v>
       </c>
       <c r="E209" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="F209">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G209">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H209" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="I209" t="s">
-        <v>119</v>
-      </c>
-      <c r="J209" t="s">
-        <v>169</v>
-      </c>
-      <c r="K209" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="L209" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="M209" s="1">
-        <v>1600000</v>
+        <v>1000000</v>
       </c>
       <c r="N209">
-        <v>48</v>
+        <v>34.32</v>
       </c>
       <c r="O209">
-        <v>192</v>
+        <v>411.84</v>
       </c>
       <c r="P209">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="Q209" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="210" spans="2:17" x14ac:dyDescent="0.25">
@@ -11614,25 +11560,25 @@
         <v>26193</v>
       </c>
       <c r="C210">
-        <v>55454652</v>
+        <v>55448004</v>
       </c>
       <c r="D210">
-        <v>1659742</v>
+        <v>1659313</v>
       </c>
       <c r="E210" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F210">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="G210">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H210" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="I210" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="L210" t="s">
         <v>19</v>
@@ -11641,13 +11587,13 @@
         <v>1000000</v>
       </c>
       <c r="N210">
-        <v>0.62</v>
+        <v>22.44</v>
       </c>
       <c r="O210">
-        <v>9.92</v>
+        <v>22.44</v>
       </c>
       <c r="P210">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q210" t="s">
         <v>20</v>
@@ -11655,43 +11601,43 @@
     </row>
     <row r="211" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B211">
-        <v>26193</v>
+        <v>26194</v>
       </c>
       <c r="C211">
-        <v>55454652</v>
+        <v>55448004</v>
       </c>
       <c r="D211">
-        <v>1659744</v>
+        <v>1659727</v>
       </c>
       <c r="E211" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F211">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="G211">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="H211" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c r="I211" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="L211" t="s">
         <v>19</v>
       </c>
       <c r="M211" s="1">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="N211">
-        <v>0.5</v>
-      </c>
-      <c r="O211">
-        <v>8</v>
+        <v>16.260000000000002</v>
+      </c>
+      <c r="O211" s="2">
+        <v>1105.68</v>
       </c>
       <c r="P211">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="Q211" t="s">
         <v>20</v>
@@ -11702,25 +11648,25 @@
         <v>26193</v>
       </c>
       <c r="C212">
-        <v>55454652</v>
+        <v>55448004</v>
       </c>
       <c r="D212">
-        <v>1659746</v>
+        <v>1659319</v>
       </c>
       <c r="E212" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F212">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="G212">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="H212" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="I212" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="L212" t="s">
         <v>19</v>
@@ -11729,13 +11675,13 @@
         <v>1000000</v>
       </c>
       <c r="N212">
-        <v>0.75</v>
+        <v>19.2</v>
       </c>
       <c r="O212">
-        <v>3</v>
+        <v>499.2</v>
       </c>
       <c r="P212">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="Q212" t="s">
         <v>20</v>
@@ -11743,43 +11689,43 @@
     </row>
     <row r="213" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B213">
-        <v>26193</v>
+        <v>26194</v>
       </c>
       <c r="C213">
-        <v>55454652</v>
+        <v>55448004</v>
       </c>
       <c r="D213">
-        <v>1659748</v>
+        <v>1659725</v>
       </c>
       <c r="E213" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F213">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="G213">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="H213" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c r="I213" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="L213" t="s">
         <v>19</v>
       </c>
       <c r="M213" s="1">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="N213">
-        <v>51.5</v>
+        <v>6.26</v>
       </c>
       <c r="O213">
-        <v>412</v>
+        <v>482.02</v>
       </c>
       <c r="P213">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="Q213" t="s">
         <v>20</v>
@@ -11787,43 +11733,43 @@
     </row>
     <row r="214" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B214">
-        <v>26193</v>
+        <v>26194</v>
       </c>
       <c r="C214">
-        <v>55454652</v>
+        <v>55448004</v>
       </c>
       <c r="D214">
-        <v>1659751</v>
+        <v>1659662</v>
       </c>
       <c r="E214" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="F214">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="G214">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="H214" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c r="I214" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="L214" t="s">
         <v>19</v>
       </c>
       <c r="M214" s="1">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="N214">
-        <v>51.5</v>
-      </c>
-      <c r="O214">
-        <v>412</v>
+        <v>12.1</v>
+      </c>
+      <c r="O214" s="2">
+        <v>1488.3</v>
       </c>
       <c r="P214">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="Q214" t="s">
         <v>20</v>
@@ -11831,43 +11777,43 @@
     </row>
     <row r="215" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B215">
-        <v>26193</v>
+        <v>26194</v>
       </c>
       <c r="C215">
-        <v>55454652</v>
+        <v>55448004</v>
       </c>
       <c r="D215">
-        <v>1659745</v>
+        <v>1659664</v>
       </c>
       <c r="E215" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="F215">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="G215">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="H215" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c r="I215" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="L215" t="s">
         <v>19</v>
       </c>
       <c r="M215" s="1">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="N215">
-        <v>0.5</v>
+        <v>1.99</v>
       </c>
       <c r="O215">
-        <v>1</v>
+        <v>77.61</v>
       </c>
       <c r="P215">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="Q215" t="s">
         <v>20</v>
@@ -11875,43 +11821,43 @@
     </row>
     <row r="216" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B216">
-        <v>26193</v>
+        <v>26194</v>
       </c>
       <c r="C216">
-        <v>55454652</v>
+        <v>55448004</v>
       </c>
       <c r="D216">
-        <v>1659741</v>
+        <v>1659725</v>
       </c>
       <c r="E216" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F216">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="G216">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H216" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c r="I216" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="L216" t="s">
         <v>19</v>
       </c>
       <c r="M216" s="1">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="N216">
-        <v>2</v>
+        <v>6.26</v>
       </c>
       <c r="O216">
-        <v>8</v>
+        <v>6.26</v>
       </c>
       <c r="P216">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q216" t="s">
         <v>20</v>
@@ -11919,43 +11865,49 @@
     </row>
     <row r="217" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B217">
-        <v>26193</v>
+        <v>26194</v>
       </c>
       <c r="C217">
-        <v>55454652</v>
+        <v>55448024</v>
       </c>
       <c r="D217">
-        <v>1659743</v>
+        <v>1659354</v>
       </c>
       <c r="E217" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F217">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G217">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H217" t="s">
-        <v>192</v>
+        <v>119</v>
       </c>
       <c r="I217" t="s">
-        <v>141</v>
+        <v>124</v>
+      </c>
+      <c r="J217" t="s">
+        <v>175</v>
+      </c>
+      <c r="K217" t="s">
+        <v>120</v>
       </c>
       <c r="L217" t="s">
         <v>19</v>
       </c>
       <c r="M217" s="1">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="N217">
-        <v>1.5</v>
+        <v>6.62</v>
       </c>
       <c r="O217">
-        <v>3</v>
+        <v>39.72</v>
       </c>
       <c r="P217">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q217" t="s">
         <v>20</v>
@@ -11963,43 +11915,49 @@
     </row>
     <row r="218" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B218">
-        <v>26193</v>
+        <v>26192</v>
       </c>
       <c r="C218">
-        <v>55454652</v>
+        <v>55448024</v>
       </c>
       <c r="D218">
-        <v>1659747</v>
+        <v>1659349</v>
       </c>
       <c r="E218" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F218">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G218">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H218" t="s">
-        <v>192</v>
+        <v>119</v>
       </c>
       <c r="I218" t="s">
-        <v>141</v>
+        <v>119</v>
+      </c>
+      <c r="J218" t="s">
+        <v>127</v>
+      </c>
+      <c r="K218" t="s">
+        <v>94</v>
       </c>
       <c r="L218" t="s">
         <v>19</v>
       </c>
       <c r="M218" s="1">
-        <v>1000000</v>
+        <v>800000</v>
       </c>
       <c r="N218">
-        <v>109.88</v>
+        <v>1.31</v>
       </c>
       <c r="O218">
-        <v>879.04</v>
+        <v>5.24</v>
       </c>
       <c r="P218">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q218" t="s">
         <v>20</v>
@@ -12007,43 +11965,49 @@
     </row>
     <row r="219" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B219">
-        <v>26193</v>
+        <v>26192</v>
       </c>
       <c r="C219">
-        <v>55454652</v>
+        <v>55448024</v>
       </c>
       <c r="D219">
-        <v>1659749</v>
+        <v>1659355</v>
       </c>
       <c r="E219" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F219">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G219">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H219" t="s">
-        <v>192</v>
+        <v>119</v>
       </c>
       <c r="I219" t="s">
-        <v>141</v>
+        <v>119</v>
+      </c>
+      <c r="J219" t="s">
+        <v>127</v>
+      </c>
+      <c r="K219" t="s">
+        <v>94</v>
       </c>
       <c r="L219" t="s">
         <v>19</v>
       </c>
       <c r="M219" s="1">
-        <v>1000000</v>
+        <v>800000</v>
       </c>
       <c r="N219">
-        <v>51.5</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="O219">
-        <v>412</v>
+        <v>51.24</v>
       </c>
       <c r="P219">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q219" t="s">
         <v>20</v>
@@ -12051,45 +12015,1035 @@
     </row>
     <row r="220" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B220">
+        <v>26192</v>
+      </c>
+      <c r="C220">
+        <v>55448024</v>
+      </c>
+      <c r="D220">
+        <v>1659356</v>
+      </c>
+      <c r="E220" t="s">
+        <v>192</v>
+      </c>
+      <c r="F220">
+        <v>90</v>
+      </c>
+      <c r="G220">
+        <v>6</v>
+      </c>
+      <c r="H220" t="s">
+        <v>119</v>
+      </c>
+      <c r="I220" t="s">
+        <v>119</v>
+      </c>
+      <c r="J220" t="s">
+        <v>127</v>
+      </c>
+      <c r="K220" t="s">
+        <v>94</v>
+      </c>
+      <c r="L220" t="s">
+        <v>19</v>
+      </c>
+      <c r="M220" s="1">
+        <v>800000</v>
+      </c>
+      <c r="N220">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="O220">
+        <v>6.9</v>
+      </c>
+      <c r="P220">
+        <v>6</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="221" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B221">
+        <v>26192</v>
+      </c>
+      <c r="C221">
+        <v>55448024</v>
+      </c>
+      <c r="D221">
+        <v>1659357</v>
+      </c>
+      <c r="E221" t="s">
+        <v>193</v>
+      </c>
+      <c r="F221">
+        <v>100</v>
+      </c>
+      <c r="G221">
+        <v>12</v>
+      </c>
+      <c r="H221" t="s">
+        <v>119</v>
+      </c>
+      <c r="I221" t="s">
+        <v>119</v>
+      </c>
+      <c r="J221" t="s">
+        <v>127</v>
+      </c>
+      <c r="K221" t="s">
+        <v>94</v>
+      </c>
+      <c r="L221" t="s">
+        <v>19</v>
+      </c>
+      <c r="M221" s="1">
+        <v>800000</v>
+      </c>
+      <c r="N221">
+        <v>3.84</v>
+      </c>
+      <c r="O221">
+        <v>46.08</v>
+      </c>
+      <c r="P221">
+        <v>12</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="222" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B222">
+        <v>26191</v>
+      </c>
+      <c r="C222">
+        <v>55448024</v>
+      </c>
+      <c r="D222">
+        <v>1659350</v>
+      </c>
+      <c r="E222" t="s">
+        <v>194</v>
+      </c>
+      <c r="F222">
+        <v>30</v>
+      </c>
+      <c r="G222">
+        <v>28</v>
+      </c>
+      <c r="H222" t="s">
+        <v>119</v>
+      </c>
+      <c r="I222" t="s">
+        <v>119</v>
+      </c>
+      <c r="J222" t="s">
+        <v>127</v>
+      </c>
+      <c r="K222" t="s">
+        <v>120</v>
+      </c>
+      <c r="L222" t="s">
+        <v>19</v>
+      </c>
+      <c r="M222" s="1">
+        <v>600000</v>
+      </c>
+      <c r="N222">
+        <v>1.3</v>
+      </c>
+      <c r="O222">
+        <v>36.4</v>
+      </c>
+      <c r="P222">
+        <v>28</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="223" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B223">
+        <v>26191</v>
+      </c>
+      <c r="C223">
+        <v>55448024</v>
+      </c>
+      <c r="D223">
+        <v>1659358</v>
+      </c>
+      <c r="E223" t="s">
+        <v>195</v>
+      </c>
+      <c r="F223">
+        <v>110</v>
+      </c>
+      <c r="G223">
+        <v>28</v>
+      </c>
+      <c r="H223" t="s">
+        <v>119</v>
+      </c>
+      <c r="I223" t="s">
+        <v>119</v>
+      </c>
+      <c r="J223" t="s">
+        <v>127</v>
+      </c>
+      <c r="K223" t="s">
+        <v>94</v>
+      </c>
+      <c r="L223" t="s">
+        <v>19</v>
+      </c>
+      <c r="M223" s="1">
+        <v>600000</v>
+      </c>
+      <c r="N223">
+        <v>1.08</v>
+      </c>
+      <c r="O223">
+        <v>30.24</v>
+      </c>
+      <c r="P223">
+        <v>28</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="224" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B224">
         <v>26193</v>
       </c>
-      <c r="C220">
+      <c r="C224">
+        <v>55448024</v>
+      </c>
+      <c r="D224">
+        <v>1659348</v>
+      </c>
+      <c r="E224" t="s">
+        <v>196</v>
+      </c>
+      <c r="F224">
+        <v>10</v>
+      </c>
+      <c r="G224">
+        <v>2</v>
+      </c>
+      <c r="H224" t="s">
+        <v>119</v>
+      </c>
+      <c r="I224" t="s">
+        <v>119</v>
+      </c>
+      <c r="J224" t="s">
+        <v>127</v>
+      </c>
+      <c r="K224" t="s">
+        <v>94</v>
+      </c>
+      <c r="L224" t="s">
+        <v>19</v>
+      </c>
+      <c r="M224" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="N224">
+        <v>6.44</v>
+      </c>
+      <c r="O224">
+        <v>12.88</v>
+      </c>
+      <c r="P224">
+        <v>2</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="225" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B225">
+        <v>26193</v>
+      </c>
+      <c r="C225">
+        <v>55448024</v>
+      </c>
+      <c r="D225">
+        <v>1659353</v>
+      </c>
+      <c r="E225" t="s">
+        <v>197</v>
+      </c>
+      <c r="F225">
+        <v>60</v>
+      </c>
+      <c r="G225">
+        <v>6</v>
+      </c>
+      <c r="H225" t="s">
+        <v>119</v>
+      </c>
+      <c r="I225" t="s">
+        <v>119</v>
+      </c>
+      <c r="J225" t="s">
+        <v>127</v>
+      </c>
+      <c r="K225" t="s">
+        <v>94</v>
+      </c>
+      <c r="L225" t="s">
+        <v>19</v>
+      </c>
+      <c r="M225" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="N225">
+        <v>4</v>
+      </c>
+      <c r="O225">
+        <v>24</v>
+      </c>
+      <c r="P225">
+        <v>6</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="226" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B226">
+        <v>26192</v>
+      </c>
+      <c r="C226">
+        <v>55448024</v>
+      </c>
+      <c r="D226">
+        <v>1659351</v>
+      </c>
+      <c r="E226" t="s">
+        <v>198</v>
+      </c>
+      <c r="F226">
+        <v>40</v>
+      </c>
+      <c r="G226">
+        <v>6</v>
+      </c>
+      <c r="H226" t="s">
+        <v>119</v>
+      </c>
+      <c r="I226" t="s">
+        <v>119</v>
+      </c>
+      <c r="J226" t="s">
+        <v>127</v>
+      </c>
+      <c r="K226" t="s">
+        <v>94</v>
+      </c>
+      <c r="L226" t="s">
+        <v>19</v>
+      </c>
+      <c r="M226" s="1">
+        <v>800000</v>
+      </c>
+      <c r="N226">
+        <v>1.92</v>
+      </c>
+      <c r="O226">
+        <v>11.52</v>
+      </c>
+      <c r="P226">
+        <v>6</v>
+      </c>
+      <c r="Q226" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="227" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B227">
+        <v>26192</v>
+      </c>
+      <c r="C227">
+        <v>55448024</v>
+      </c>
+      <c r="D227">
+        <v>1659352</v>
+      </c>
+      <c r="E227" t="s">
+        <v>192</v>
+      </c>
+      <c r="F227">
+        <v>50</v>
+      </c>
+      <c r="G227">
+        <v>6</v>
+      </c>
+      <c r="H227" t="s">
+        <v>119</v>
+      </c>
+      <c r="I227" t="s">
+        <v>119</v>
+      </c>
+      <c r="J227" t="s">
+        <v>127</v>
+      </c>
+      <c r="K227" t="s">
+        <v>94</v>
+      </c>
+      <c r="L227" t="s">
+        <v>19</v>
+      </c>
+      <c r="M227" s="1">
+        <v>800000</v>
+      </c>
+      <c r="N227">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="O227">
+        <v>6.9</v>
+      </c>
+      <c r="P227">
+        <v>6</v>
+      </c>
+      <c r="Q227" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="228" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B228">
+        <v>62586</v>
+      </c>
+      <c r="C228">
+        <v>55448152</v>
+      </c>
+      <c r="D228">
+        <v>1659297</v>
+      </c>
+      <c r="E228" t="s">
+        <v>199</v>
+      </c>
+      <c r="F228">
+        <v>10</v>
+      </c>
+      <c r="G228">
+        <v>50</v>
+      </c>
+      <c r="H228" t="s">
+        <v>119</v>
+      </c>
+      <c r="I228" t="s">
+        <v>168</v>
+      </c>
+      <c r="J228" t="s">
+        <v>127</v>
+      </c>
+      <c r="K228" t="s">
+        <v>120</v>
+      </c>
+      <c r="L228" t="s">
+        <v>41</v>
+      </c>
+      <c r="M228" s="1">
+        <v>600000</v>
+      </c>
+      <c r="N228">
+        <v>2.7</v>
+      </c>
+      <c r="O228">
+        <v>135</v>
+      </c>
+      <c r="P228">
+        <v>50</v>
+      </c>
+      <c r="Q228" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="229" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B229">
+        <v>62578</v>
+      </c>
+      <c r="C229">
+        <v>55449799</v>
+      </c>
+      <c r="D229">
+        <v>1659141</v>
+      </c>
+      <c r="E229" t="s">
+        <v>200</v>
+      </c>
+      <c r="F229">
+        <v>10</v>
+      </c>
+      <c r="G229">
+        <v>4</v>
+      </c>
+      <c r="H229" t="s">
+        <v>119</v>
+      </c>
+      <c r="I229" t="s">
+        <v>119</v>
+      </c>
+      <c r="J229" t="s">
+        <v>119</v>
+      </c>
+      <c r="K229" t="s">
+        <v>94</v>
+      </c>
+      <c r="L229" t="s">
+        <v>41</v>
+      </c>
+      <c r="M229" s="1">
+        <v>1600000</v>
+      </c>
+      <c r="N229">
+        <v>13.44</v>
+      </c>
+      <c r="O229">
+        <v>53.76</v>
+      </c>
+      <c r="P229">
+        <v>4</v>
+      </c>
+      <c r="Q229" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="230" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B230">
+        <v>62578</v>
+      </c>
+      <c r="C230">
+        <v>55449799</v>
+      </c>
+      <c r="D230">
+        <v>1659142</v>
+      </c>
+      <c r="E230" t="s">
+        <v>201</v>
+      </c>
+      <c r="F230">
+        <v>20</v>
+      </c>
+      <c r="G230">
+        <v>4</v>
+      </c>
+      <c r="H230" t="s">
+        <v>119</v>
+      </c>
+      <c r="I230" t="s">
+        <v>119</v>
+      </c>
+      <c r="J230" t="s">
+        <v>175</v>
+      </c>
+      <c r="K230" t="s">
+        <v>120</v>
+      </c>
+      <c r="L230" t="s">
+        <v>41</v>
+      </c>
+      <c r="M230" s="1">
+        <v>1600000</v>
+      </c>
+      <c r="N230">
+        <v>48</v>
+      </c>
+      <c r="O230">
+        <v>192</v>
+      </c>
+      <c r="P230">
+        <v>4</v>
+      </c>
+      <c r="Q230" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="231" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B231">
+        <v>26193</v>
+      </c>
+      <c r="C231">
         <v>55454652</v>
       </c>
-      <c r="D220">
+      <c r="D231">
+        <v>1659742</v>
+      </c>
+      <c r="E231" t="s">
+        <v>202</v>
+      </c>
+      <c r="F231">
+        <v>20</v>
+      </c>
+      <c r="G231">
+        <v>16</v>
+      </c>
+      <c r="H231" t="s">
+        <v>181</v>
+      </c>
+      <c r="I231" t="s">
+        <v>141</v>
+      </c>
+      <c r="L231" t="s">
+        <v>19</v>
+      </c>
+      <c r="M231" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="N231">
+        <v>0.62</v>
+      </c>
+      <c r="O231">
+        <v>9.92</v>
+      </c>
+      <c r="P231">
+        <v>16</v>
+      </c>
+      <c r="Q231" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="232" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B232">
+        <v>26193</v>
+      </c>
+      <c r="C232">
+        <v>55454652</v>
+      </c>
+      <c r="D232">
+        <v>1659744</v>
+      </c>
+      <c r="E232" t="s">
+        <v>203</v>
+      </c>
+      <c r="F232">
+        <v>40</v>
+      </c>
+      <c r="G232">
+        <v>16</v>
+      </c>
+      <c r="H232" t="s">
+        <v>181</v>
+      </c>
+      <c r="I232" t="s">
+        <v>141</v>
+      </c>
+      <c r="L232" t="s">
+        <v>19</v>
+      </c>
+      <c r="M232" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="N232">
+        <v>0.5</v>
+      </c>
+      <c r="O232">
+        <v>8</v>
+      </c>
+      <c r="P232">
+        <v>16</v>
+      </c>
+      <c r="Q232" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="233" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B233">
+        <v>26193</v>
+      </c>
+      <c r="C233">
+        <v>55454652</v>
+      </c>
+      <c r="D233">
+        <v>1659746</v>
+      </c>
+      <c r="E233" t="s">
+        <v>204</v>
+      </c>
+      <c r="F233">
+        <v>60</v>
+      </c>
+      <c r="G233">
+        <v>4</v>
+      </c>
+      <c r="H233" t="s">
+        <v>181</v>
+      </c>
+      <c r="I233" t="s">
+        <v>141</v>
+      </c>
+      <c r="L233" t="s">
+        <v>19</v>
+      </c>
+      <c r="M233" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="N233">
+        <v>0.75</v>
+      </c>
+      <c r="O233">
+        <v>3</v>
+      </c>
+      <c r="P233">
+        <v>4</v>
+      </c>
+      <c r="Q233" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="234" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B234">
+        <v>26193</v>
+      </c>
+      <c r="C234">
+        <v>55454652</v>
+      </c>
+      <c r="D234">
+        <v>1659748</v>
+      </c>
+      <c r="E234" t="s">
+        <v>205</v>
+      </c>
+      <c r="F234">
+        <v>80</v>
+      </c>
+      <c r="G234">
+        <v>8</v>
+      </c>
+      <c r="H234" t="s">
+        <v>181</v>
+      </c>
+      <c r="I234" t="s">
+        <v>141</v>
+      </c>
+      <c r="L234" t="s">
+        <v>19</v>
+      </c>
+      <c r="M234" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="N234">
+        <v>51.5</v>
+      </c>
+      <c r="O234">
+        <v>412</v>
+      </c>
+      <c r="P234">
+        <v>8</v>
+      </c>
+      <c r="Q234" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="235" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B235">
+        <v>26193</v>
+      </c>
+      <c r="C235">
+        <v>55454652</v>
+      </c>
+      <c r="D235">
+        <v>1659751</v>
+      </c>
+      <c r="E235" t="s">
+        <v>206</v>
+      </c>
+      <c r="F235">
+        <v>110</v>
+      </c>
+      <c r="G235">
+        <v>8</v>
+      </c>
+      <c r="H235" t="s">
+        <v>181</v>
+      </c>
+      <c r="I235" t="s">
+        <v>141</v>
+      </c>
+      <c r="L235" t="s">
+        <v>19</v>
+      </c>
+      <c r="M235" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="N235">
+        <v>51.5</v>
+      </c>
+      <c r="O235">
+        <v>412</v>
+      </c>
+      <c r="P235">
+        <v>8</v>
+      </c>
+      <c r="Q235" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="236" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B236">
+        <v>26193</v>
+      </c>
+      <c r="C236">
+        <v>55454652</v>
+      </c>
+      <c r="D236">
+        <v>1659745</v>
+      </c>
+      <c r="E236" t="s">
+        <v>207</v>
+      </c>
+      <c r="F236">
+        <v>50</v>
+      </c>
+      <c r="G236">
+        <v>2</v>
+      </c>
+      <c r="H236" t="s">
+        <v>181</v>
+      </c>
+      <c r="I236" t="s">
+        <v>141</v>
+      </c>
+      <c r="L236" t="s">
+        <v>19</v>
+      </c>
+      <c r="M236" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="N236">
+        <v>0.5</v>
+      </c>
+      <c r="O236">
+        <v>1</v>
+      </c>
+      <c r="P236">
+        <v>2</v>
+      </c>
+      <c r="Q236" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="237" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B237">
+        <v>26193</v>
+      </c>
+      <c r="C237">
+        <v>55454652</v>
+      </c>
+      <c r="D237">
+        <v>1659741</v>
+      </c>
+      <c r="E237" t="s">
+        <v>208</v>
+      </c>
+      <c r="F237">
+        <v>10</v>
+      </c>
+      <c r="G237">
+        <v>4</v>
+      </c>
+      <c r="H237" t="s">
+        <v>181</v>
+      </c>
+      <c r="I237" t="s">
+        <v>141</v>
+      </c>
+      <c r="L237" t="s">
+        <v>19</v>
+      </c>
+      <c r="M237" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="N237">
+        <v>2</v>
+      </c>
+      <c r="O237">
+        <v>8</v>
+      </c>
+      <c r="P237">
+        <v>4</v>
+      </c>
+      <c r="Q237" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="238" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B238">
+        <v>26193</v>
+      </c>
+      <c r="C238">
+        <v>55454652</v>
+      </c>
+      <c r="D238">
+        <v>1659743</v>
+      </c>
+      <c r="E238" t="s">
+        <v>209</v>
+      </c>
+      <c r="F238">
+        <v>30</v>
+      </c>
+      <c r="G238">
+        <v>2</v>
+      </c>
+      <c r="H238" t="s">
+        <v>181</v>
+      </c>
+      <c r="I238" t="s">
+        <v>141</v>
+      </c>
+      <c r="L238" t="s">
+        <v>19</v>
+      </c>
+      <c r="M238" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="N238">
+        <v>1.5</v>
+      </c>
+      <c r="O238">
+        <v>3</v>
+      </c>
+      <c r="P238">
+        <v>2</v>
+      </c>
+      <c r="Q238" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="239" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B239">
+        <v>26193</v>
+      </c>
+      <c r="C239">
+        <v>55454652</v>
+      </c>
+      <c r="D239">
+        <v>1659747</v>
+      </c>
+      <c r="E239" t="s">
+        <v>210</v>
+      </c>
+      <c r="F239">
+        <v>70</v>
+      </c>
+      <c r="G239">
+        <v>8</v>
+      </c>
+      <c r="H239" t="s">
+        <v>181</v>
+      </c>
+      <c r="I239" t="s">
+        <v>141</v>
+      </c>
+      <c r="L239" t="s">
+        <v>19</v>
+      </c>
+      <c r="M239" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="N239">
+        <v>109.88</v>
+      </c>
+      <c r="O239">
+        <v>879.04</v>
+      </c>
+      <c r="P239">
+        <v>8</v>
+      </c>
+      <c r="Q239" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="240" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B240">
+        <v>26193</v>
+      </c>
+      <c r="C240">
+        <v>55454652</v>
+      </c>
+      <c r="D240">
+        <v>1659749</v>
+      </c>
+      <c r="E240" t="s">
+        <v>211</v>
+      </c>
+      <c r="F240">
+        <v>90</v>
+      </c>
+      <c r="G240">
+        <v>8</v>
+      </c>
+      <c r="H240" t="s">
+        <v>181</v>
+      </c>
+      <c r="I240" t="s">
+        <v>141</v>
+      </c>
+      <c r="L240" t="s">
+        <v>19</v>
+      </c>
+      <c r="M240" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="N240">
+        <v>51.5</v>
+      </c>
+      <c r="O240">
+        <v>412</v>
+      </c>
+      <c r="P240">
+        <v>8</v>
+      </c>
+      <c r="Q240" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="241" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B241">
+        <v>26193</v>
+      </c>
+      <c r="C241">
+        <v>55454652</v>
+      </c>
+      <c r="D241">
         <v>1659752</v>
       </c>
-      <c r="E220" t="s">
-        <v>202</v>
-      </c>
-      <c r="F220">
+      <c r="E241" t="s">
+        <v>212</v>
+      </c>
+      <c r="F241">
         <v>120</v>
       </c>
-      <c r="G220">
+      <c r="G241">
         <v>3</v>
       </c>
-      <c r="H220" t="s">
-        <v>192</v>
-      </c>
-      <c r="I220" t="s">
+      <c r="H241" t="s">
+        <v>181</v>
+      </c>
+      <c r="I241" t="s">
         <v>141</v>
       </c>
-      <c r="L220" t="s">
-        <v>19</v>
-      </c>
-      <c r="M220" s="1">
+      <c r="L241" t="s">
+        <v>19</v>
+      </c>
+      <c r="M241" s="1">
         <v>1000000</v>
       </c>
-      <c r="N220">
+      <c r="N241">
         <v>47.88</v>
       </c>
-      <c r="O220">
+      <c r="O241">
         <v>143.63999999999999</v>
       </c>
-      <c r="P220">
+      <c r="P241">
         <v>3</v>
       </c>
-      <c r="Q220" t="s">
+      <c r="Q241" t="s">
         <v>20</v>
       </c>
     </row>

--- a/data/CORTE_SAP.xlsx
+++ b/data/CORTE_SAP.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
   </bookViews>
   <sheets>
-    <sheet name="SAP LASER 21AGOSTO" sheetId="1" r:id="rId1"/>
+    <sheet name="SAPO ASER AGOSTO21" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1876,8 +1876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D453" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
